--- a/vaadin-spreadsheet/src/test/resources/test_sheets/test_conditional_formatting.xlsx
+++ b/vaadin-spreadsheet/src/test/resources/test_sheets/test_conditional_formatting.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\GIT\tagetik-2017-spreadsheet-1.4\tagetik-2017-spreadsheet\vaadin-spreadsheet\src\test\resources\test_sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36260" yWindow="4340" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="36255" yWindow="4335" windowWidth="25605" windowHeight="17535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -207,6 +212,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -534,13 +547,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -548,12 +559,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>6</v>
       </c>
@@ -564,7 +575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>18</v>
       </c>
@@ -575,7 +586,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>54</v>
       </c>
@@ -586,7 +597,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -594,12 +605,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -610,7 +621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>18</v>
       </c>
@@ -621,7 +632,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>54</v>
       </c>
@@ -632,7 +643,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -640,12 +651,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>6</v>
       </c>
@@ -656,7 +667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>18</v>
       </c>
@@ -667,7 +678,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>54</v>
       </c>
@@ -678,7 +689,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -686,12 +697,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>6</v>
       </c>
@@ -702,7 +713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>18</v>
       </c>
@@ -713,7 +724,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>54</v>
       </c>
